--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -492,40 +492,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,18 +519,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,11 +549,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,7 +618,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,23 +626,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +733,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,151 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,16 +1158,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,23 +1184,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,23 +1204,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,13 +1225,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,151 +1259,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2605,7 +2605,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3115,9 +3115,7 @@
       <c r="A28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="38">
-        <v>1111</v>
-      </c>
+      <c r="B28" s="38"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>

--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -490,7 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +498,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,16 +520,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,21 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,15 +588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,7 +602,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -618,7 +626,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,15 +634,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +697,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,25 +823,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,127 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,16 +1157,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1183,29 +1183,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,16 +1222,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1259,151 +1259,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2604,8 +2604,8 @@
   <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3115,7 +3115,9 @@
       <c r="A28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="38">
+        <v>11</v>
+      </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>

--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -490,36 +490,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -533,31 +503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,6 +527,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -588,7 +549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,14 +559,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,8 +578,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +697,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +763,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,121 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,37 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,6 +1157,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1175,8 +1190,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,6 +1202,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1203,30 +1227,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,49 +1259,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,100 +1313,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2604,8 +2604,8 @@
   <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3117,6 +3117,9 @@
       </c>
       <c r="B28" s="38">
         <v>11</v>
+      </c>
+      <c r="C28">
+        <v>555</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>

--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="795" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13050" tabRatio="795" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016.01.18" sheetId="1" state="hidden" r:id="rId1"/>
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -496,31 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,30 +511,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,40 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +559,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +697,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,13 +745,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,79 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,73 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,17 +1157,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,22 +1183,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,6 +1203,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,17 +1246,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,10 +1262,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,136 +1274,136 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2602,10 +2602,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3116,7 +3116,7 @@
         <v>77</v>
       </c>
       <c r="B28" s="38">
-        <v>11</v>
+        <v>1221</v>
       </c>
       <c r="C28">
         <v>555</v>
@@ -3128,7 +3128,10 @@
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="2:12">
+      <c r="B29" s="38">
+        <v>1222</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
@@ -3137,13 +3140,66 @@
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
     </row>
-    <row r="30" spans="7:12">
+    <row r="30" spans="2:12">
+      <c r="B30" s="38">
+        <v>1223</v>
+      </c>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="38">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="38">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="38">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="38">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="38">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="38">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="38">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="38">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="38">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="38">
+        <v>1233</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>20160118 - 20160123</t>
   </si>
@@ -397,6 +397,9 @@
     <t>注意：</t>
   </si>
   <si>
+    <t>222333344455666</t>
+  </si>
+  <si>
     <t>工作周报(??)</t>
   </si>
   <si>
@@ -433,9 +436,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -497,14 +500,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,21 +583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,38 +591,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,14 +607,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,16 +621,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +630,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +700,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -709,13 +754,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,151 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,6 +1160,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1172,46 +1193,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,23 +1225,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1262,10 +1265,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,136 +1277,136 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1715,6 +1718,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2605,7 +2611,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3118,8 +3124,8 @@
       <c r="B28" s="38">
         <v>11</v>
       </c>
-      <c r="C28">
-        <v>555</v>
+      <c r="C28" s="102" t="s">
+        <v>78</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -3180,7 +3186,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3189,7 +3195,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3405,7 +3411,7 @@
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="G15" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
@@ -3507,7 +3513,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:12">
       <c r="A22" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>8</v>

--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -397,7 +397,7 @@
     <t>注意：</t>
   </si>
   <si>
-    <t>222333344455666</t>
+    <t>2223333441455666</t>
   </si>
   <si>
     <t>工作周报(??)</t>
@@ -436,10 +436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -495,19 +495,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,24 +522,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +567,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,45 +589,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -636,6 +628,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -700,7 +700,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +778,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,31 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,73 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,49 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,9 +1162,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,36 +1176,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,11 +1197,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,8 +1207,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,156 +1242,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2611,7 +2611,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/总体工作安排.xlsx
+++ b/doc/总体工作安排.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\灵派诺达\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\projects\BasicPlat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>20160118 - 20160123</t>
   </si>
@@ -431,6 +431,11 @@
   d)CRM项目联系[晓虎、王晖]
   e)工作犬需求确定[王晖]</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-完成；
+2-完成(于周二)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -939,6 +944,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -951,119 +1070,44 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1098,45 +1142,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1162,6 +1167,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1528,192 +1536,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="61" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="73"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="71" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="35"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="38"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="69"/>
     </row>
     <row r="9" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
       <c r="O10" s="25"/>
     </row>
     <row r="11" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="69" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
       <c r="O11" s="25"/>
     </row>
     <row r="12" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
       <c r="O12" s="25"/>
     </row>
     <row r="13" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,148 +1734,148 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="24"/>
       <c r="L13" s="26"/>
       <c r="M13" s="27"/>
       <c r="O13" s="25"/>
     </row>
     <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
       <c r="N14" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="65" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="53"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="53"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="53"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="53"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
@@ -1875,72 +1883,72 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="67" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="63" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="31"/>
@@ -1951,6 +1959,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="K5:K6"/>
@@ -1967,35 +2004,6 @@
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.39513888888888898" right="0.39513888888888898" top="0.42638888888888898" bottom="0.42638888888888898" header="0.196527777777778" footer="0.196527777777778"/>
@@ -2008,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2021,30 +2029,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="G2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2062,15 +2070,15 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2082,16 +2090,18 @@
       <c r="D4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="E4" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
@@ -2102,15 +2112,15 @@
         <v>39</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2121,15 +2131,15 @@
         <v>43</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2138,15 +2148,15 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
@@ -2157,15 +2167,15 @@
         <v>47</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -2174,15 +2184,15 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="96" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2195,15 +2205,15 @@
         <v>52</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
@@ -2214,15 +2224,15 @@
         <v>54</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:12" ht="52" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2251,7 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
@@ -2260,7 +2270,7 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -2279,7 +2289,7 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
@@ -2288,17 +2298,17 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="93" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2309,15 +2319,15 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2326,15 +2336,15 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2343,15 +2353,15 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
@@ -2360,15 +2370,15 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="1:12" ht="26" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
@@ -2377,15 +2387,15 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2394,15 +2404,15 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
     </row>
     <row r="22" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="74" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2415,15 +2425,15 @@
         <v>67</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
     </row>
     <row r="23" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="9" t="s">
         <v>40</v>
       </c>
@@ -2434,15 +2444,15 @@
         <v>69</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
     </row>
     <row r="24" spans="1:12" ht="61" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
@@ -2453,15 +2463,15 @@
         <v>71</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
@@ -2472,15 +2482,15 @@
         <v>73</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
     </row>
     <row r="26" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="9" t="s">
         <v>45</v>
       </c>
@@ -2491,15 +2501,15 @@
         <v>75</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
     </row>
     <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
@@ -2508,41 +2518,41 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2577,30 +2587,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="G2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2618,15 +2628,15 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2635,90 +2645,90 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="96" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2727,30 +2737,30 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2775,7 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
@@ -2780,7 +2790,7 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -2795,7 +2805,7 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
@@ -2812,7 +2822,7 @@
       <c r="L15" s="100"/>
     </row>
     <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="93" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2829,7 +2839,7 @@
       <c r="L16" s="103"/>
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2844,7 +2854,7 @@
       <c r="L17" s="103"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2859,7 +2869,7 @@
       <c r="L18" s="103"/>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
@@ -2874,7 +2884,7 @@
       <c r="L19" s="103"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
@@ -2889,7 +2899,7 @@
       <c r="L20" s="103"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2904,7 +2914,7 @@
       <c r="L21" s="103"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="74" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2921,7 +2931,7 @@
       <c r="L22" s="103"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="9" t="s">
         <v>40</v>
       </c>
@@ -2936,7 +2946,7 @@
       <c r="L23" s="103"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
@@ -2951,7 +2961,7 @@
       <c r="L24" s="103"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
@@ -2966,7 +2976,7 @@
       <c r="L25" s="103"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="9" t="s">
         <v>45</v>
       </c>
@@ -2981,7 +2991,7 @@
       <c r="L26" s="103"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
@@ -3057,108 +3067,108 @@
       <c r="L41" s="13"/>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="93"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
